--- a/CALC.xlsx
+++ b/CALC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\MEC_code1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\MEC_code1\MEC_code_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11650B42-4475-432F-9CCA-6E9DB264DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC37BD86-DDDB-44BD-A20A-C31FEC0F6853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>Section</t>
   </si>
@@ -58,16 +58,313 @@
   </si>
   <si>
     <t>UR</t>
+  </si>
+  <si>
+    <t>SEC100</t>
+  </si>
+  <si>
+    <t>SEC4</t>
+  </si>
+  <si>
+    <t>SEC5</t>
+  </si>
+  <si>
+    <t>SEC6</t>
+  </si>
+  <si>
+    <t>SEC7</t>
+  </si>
+  <si>
+    <t>SEC8</t>
+  </si>
+  <si>
+    <t>SEC9</t>
+  </si>
+  <si>
+    <t>SEC10</t>
+  </si>
+  <si>
+    <t>SEC11</t>
+  </si>
+  <si>
+    <t>SEC12</t>
+  </si>
+  <si>
+    <t>SEC13</t>
+  </si>
+  <si>
+    <t>SEC14</t>
+  </si>
+  <si>
+    <t>SEC15</t>
+  </si>
+  <si>
+    <t>SEC16</t>
+  </si>
+  <si>
+    <t>SEC17</t>
+  </si>
+  <si>
+    <t>SEC18</t>
+  </si>
+  <si>
+    <t>SEC19</t>
+  </si>
+  <si>
+    <t>SEC20</t>
+  </si>
+  <si>
+    <t>SEC21</t>
+  </si>
+  <si>
+    <t>SEC22</t>
+  </si>
+  <si>
+    <t>SEC23</t>
+  </si>
+  <si>
+    <t>SEC24</t>
+  </si>
+  <si>
+    <t>SEC25</t>
+  </si>
+  <si>
+    <t>SEC26</t>
+  </si>
+  <si>
+    <t>SEC27</t>
+  </si>
+  <si>
+    <t>SEC28</t>
+  </si>
+  <si>
+    <t>SEC29</t>
+  </si>
+  <si>
+    <t>SEC30</t>
+  </si>
+  <si>
+    <t>SEC31</t>
+  </si>
+  <si>
+    <t>SEC32</t>
+  </si>
+  <si>
+    <t>SEC33</t>
+  </si>
+  <si>
+    <t>SEC34</t>
+  </si>
+  <si>
+    <t>SEC35</t>
+  </si>
+  <si>
+    <t>SEC36</t>
+  </si>
+  <si>
+    <t>SEC37</t>
+  </si>
+  <si>
+    <t>SEC38</t>
+  </si>
+  <si>
+    <t>SEC39</t>
+  </si>
+  <si>
+    <t>SEC40</t>
+  </si>
+  <si>
+    <t>SEC41</t>
+  </si>
+  <si>
+    <t>SEC42</t>
+  </si>
+  <si>
+    <t>SEC43</t>
+  </si>
+  <si>
+    <t>SEC44</t>
+  </si>
+  <si>
+    <t>SEC45</t>
+  </si>
+  <si>
+    <t>SEC46</t>
+  </si>
+  <si>
+    <t>SEC47</t>
+  </si>
+  <si>
+    <t>SEC48</t>
+  </si>
+  <si>
+    <t>SEC49</t>
+  </si>
+  <si>
+    <t>SEC50</t>
+  </si>
+  <si>
+    <t>SEC51</t>
+  </si>
+  <si>
+    <t>SEC52</t>
+  </si>
+  <si>
+    <t>SEC53</t>
+  </si>
+  <si>
+    <t>SEC54</t>
+  </si>
+  <si>
+    <t>SEC55</t>
+  </si>
+  <si>
+    <t>SEC56</t>
+  </si>
+  <si>
+    <t>SEC57</t>
+  </si>
+  <si>
+    <t>SEC58</t>
+  </si>
+  <si>
+    <t>SEC59</t>
+  </si>
+  <si>
+    <t>SEC60</t>
+  </si>
+  <si>
+    <t>SEC61</t>
+  </si>
+  <si>
+    <t>SEC62</t>
+  </si>
+  <si>
+    <t>SEC63</t>
+  </si>
+  <si>
+    <t>SEC64</t>
+  </si>
+  <si>
+    <t>SEC65</t>
+  </si>
+  <si>
+    <t>SEC66</t>
+  </si>
+  <si>
+    <t>SEC67</t>
+  </si>
+  <si>
+    <t>SEC68</t>
+  </si>
+  <si>
+    <t>SEC69</t>
+  </si>
+  <si>
+    <t>SEC70</t>
+  </si>
+  <si>
+    <t>SEC71</t>
+  </si>
+  <si>
+    <t>SEC72</t>
+  </si>
+  <si>
+    <t>SEC73</t>
+  </si>
+  <si>
+    <t>SEC74</t>
+  </si>
+  <si>
+    <t>SEC75</t>
+  </si>
+  <si>
+    <t>SEC76</t>
+  </si>
+  <si>
+    <t>SEC77</t>
+  </si>
+  <si>
+    <t>SEC78</t>
+  </si>
+  <si>
+    <t>SEC79</t>
+  </si>
+  <si>
+    <t>SEC80</t>
+  </si>
+  <si>
+    <t>SEC81</t>
+  </si>
+  <si>
+    <t>SEC82</t>
+  </si>
+  <si>
+    <t>SEC83</t>
+  </si>
+  <si>
+    <t>SEC84</t>
+  </si>
+  <si>
+    <t>SEC85</t>
+  </si>
+  <si>
+    <t>SEC86</t>
+  </si>
+  <si>
+    <t>SEC87</t>
+  </si>
+  <si>
+    <t>SEC88</t>
+  </si>
+  <si>
+    <t>SEC89</t>
+  </si>
+  <si>
+    <t>SEC90</t>
+  </si>
+  <si>
+    <t>SEC91</t>
+  </si>
+  <si>
+    <t>SEC92</t>
+  </si>
+  <si>
+    <t>SEC93</t>
+  </si>
+  <si>
+    <t>SEC94</t>
+  </si>
+  <si>
+    <t>SEC95</t>
+  </si>
+  <si>
+    <t>SEC96</t>
+  </si>
+  <si>
+    <t>SEC97</t>
+  </si>
+  <si>
+    <t>SEC98</t>
+  </si>
+  <si>
+    <t>SEC99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,14 +390,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -114,12 +419,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:D6" totalsRowShown="0">
-  <autoFilter ref="B3:D6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:D103" totalsRowShown="0">
+  <autoFilter ref="B3:D103" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Section"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Design Force"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Capacity"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Design Force" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Capacity" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Design Force]]+1</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -389,10 +696,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:D6"/>
+  <dimension ref="B3:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,36 +722,1303 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5">
-        <v>400</v>
+      <c r="C5" s="2">
+        <f>C4+1</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>300</v>
-      </c>
-      <c r="D6">
-        <v>500</v>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C69" si="0">C5+1</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D17" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D18" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D19" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D21" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D22" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D24" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D25" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D26" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D27" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D28" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D29" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D30" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D31" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D32" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D33" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D34" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D35" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D36" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D37" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D38" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D39" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D40" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D41" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D42" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D43" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D44" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D45" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D46" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D47" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D48" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D49" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D50" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D51" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D52" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D53" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D54" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D55" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D56" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D57" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D58" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D59" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D60" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D61" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D62" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D63" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D64" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D65" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D66" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D67" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D68" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D69" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" ref="C70:C103" si="1">C69+1</f>
+        <v>67</v>
+      </c>
+      <c r="D70" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="D71" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="D72" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="D73" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="2">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="D74" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="D75" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="D76" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="D77" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="2">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="D78" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="2">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="D79" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="D80" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="2">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="D81" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="2">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="D82" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="D83" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="2">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="D84" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="2">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="D85" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="2">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="D86" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="D87" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D88" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="2">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="D89" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="D90" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="2">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="D91" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D92" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="2">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="D93" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="2">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="D94" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="D95" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="2">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D96" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="D97" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="2">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="D98" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="2">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="D99" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="2">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="D100" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="D101" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="D102" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D103" s="2">
+        <f>Table1[[#This Row],[Design Force]]+1</f>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -473,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -482,7 +2056,7 @@
       </c>
       <c r="C3">
         <f>VLOOKUP($C$2,Table1[],2,0)</f>
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -491,7 +2065,7 @@
       </c>
       <c r="C4">
         <f>VLOOKUP($C$2,Table1[],3,0)</f>
-        <v>500</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -500,7 +2074,7 @@
       </c>
       <c r="C5" s="1">
         <f>C3/C4</f>
-        <v>0.6</v>
+        <v>0.99009900990099009</v>
       </c>
     </row>
   </sheetData>
